--- a/RUDN/Importance/Varible_muatal_in_Western Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Western Europe.xlsx
@@ -37,18 +37,18 @@
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
+    <t>Years</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
@@ -67,25 +67,34 @@
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
@@ -94,22 +103,19 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
     <t>Male population 80+</t>
@@ -118,30 +124,24 @@
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
@@ -172,136 +172,193 @@
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
@@ -310,211 +367,205 @@
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Male population 65-69</t>
   </si>
   <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
@@ -523,145 +574,259 @@
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
     <t>People practicing open defecation (% of population)</t>
@@ -670,289 +835,124 @@
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Reion_sub_code</t>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6263260796342163</v>
+        <v>0.6312139001470372</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5667114512082456</v>
+        <v>0.5660949101822226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5338341709594623</v>
+        <v>0.5370583773086692</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5220707305623038</v>
+        <v>0.5209185556771989</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4270128124088099</v>
+        <v>0.4294309661662492</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4245306900762751</v>
+        <v>0.4254082698817818</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4064815839556752</v>
+        <v>0.4082376403992316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4064815839556752</v>
+        <v>0.4082376403992316</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3701755942926104</v>
+        <v>0.3687455401802899</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3617063086337877</v>
+        <v>0.3492653558572427</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2947132448736189</v>
+        <v>0.2975406258259996</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2627518921829683</v>
+        <v>0.2677236663943561</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2555664838480267</v>
+        <v>0.2581653454439428</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.229831097871469</v>
+        <v>0.2311416242983524</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.222118714863035</v>
+        <v>0.2157769167801655</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1987771917790764</v>
+        <v>0.1958374187785621</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1960147652325204</v>
+        <v>0.1937826223753774</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1958834627115116</v>
+        <v>0.1936513198543686</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1898565123986906</v>
+        <v>0.1860271473193256</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1600793442740529</v>
+        <v>0.1574536519819127</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1488320587024226</v>
+        <v>0.1551934623740601</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1469628481098546</v>
+        <v>0.1526488372592254</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1445888542148082</v>
+        <v>0.149053139929094</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1440177311726445</v>
+        <v>0.1485052556013131</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1426792419804181</v>
+        <v>0.1445680398901241</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.1419275362325831</v>
+        <v>0.1437179023335247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1310853065439086</v>
+        <v>0.1432060428609563</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1278471541063977</v>
+        <v>0.1426792419804181</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1274690504874432</v>
+        <v>0.1310679120581015</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1222394056318137</v>
+        <v>0.1263618627405731</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1204094817881924</v>
+        <v>0.1223758994817978</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1194478344695735</v>
+        <v>0.1203028533309367</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1167625493035209</v>
+        <v>0.1178761853721944</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1140335814088274</v>
+        <v>0.1172736384249191</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1136752528748488</v>
+        <v>0.1155870791154452</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1134138195090053</v>
+        <v>0.1145058675726509</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1099321494039098</v>
+        <v>0.1131150921354092</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1055532448808079</v>
+        <v>0.1122152843028787</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1023615103996847</v>
+        <v>0.1091361093202612</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1001322103610831</v>
+        <v>0.1024113711881374</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.09848551209096401</v>
+        <v>0.1013226865515591</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.09525214690084427</v>
+        <v>0.09551783034156269</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.09261925328752141</v>
+        <v>0.09514901519228358</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.09261925328752141</v>
+        <v>0.09514901519228358</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.09261925328752141</v>
+        <v>0.09514901519228358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.09261925328752141</v>
+        <v>0.09514901519228358</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.08871287162155261</v>
+        <v>0.08753740143347732</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.08871287162155261</v>
+        <v>0.08753740143347732</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.08856496026683258</v>
+        <v>0.08569881471307617</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.08551738191490221</v>
+        <v>0.08505718321114619</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.08271565402091796</v>
+        <v>0.08397208496648556</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.08206538199890856</v>
+        <v>0.08133237268283233</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.08083516461164986</v>
+        <v>0.08131126043616543</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.07967950254890321</v>
+        <v>0.08110988988637535</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.079273265870625</v>
+        <v>0.08037679554094512</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.07812486727374002</v>
+        <v>0.0799204482179463</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.07804113421712633</v>
+        <v>0.07811233237617343</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.07710748008607538</v>
+        <v>0.07762538713020573</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.07701867801858309</v>
+        <v>0.07743739934753813</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.076528282834609</v>
+        <v>0.07725558863758919</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.07608421312336255</v>
+        <v>0.07695020504415395</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.07605189281573388</v>
+        <v>0.07682109115033087</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.07502006323839394</v>
+        <v>0.07672810818039721</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0744683887541826</v>
+        <v>0.07662053503065547</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.07392828888547642</v>
+        <v>0.07662053503065547</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.07243552576281487</v>
+        <v>0.07662053503065547</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.07232795261307312</v>
+        <v>0.07662053503065547</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.07232795261307312</v>
+        <v>0.07662053503065547</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.07232795261307312</v>
+        <v>0.076528282834609</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.07232795261307312</v>
+        <v>0.07626379292500229</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.07232795261307312</v>
+        <v>0.07566203677152816</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.07228680562479473</v>
+        <v>0.07522009789302819</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.07216565301761646</v>
+        <v>0.07424504468521897</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.07092751547544585</v>
+        <v>0.07386080272162898</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.07010168190040011</v>
+        <v>0.07367024671326416</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.07000584140145083</v>
+        <v>0.0734359240632334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.06997144441779368</v>
+        <v>0.0728221333922654</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.06995246226763663</v>
+        <v>0.07165420876362316</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.06956822030404664</v>
+        <v>0.07165420876362316</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.06914334164565084</v>
+        <v>0.07093626358847982</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.06824172220854474</v>
+        <v>0.07023662118509666</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.06674842817429516</v>
+        <v>0.06997144441779368</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.06638488199905512</v>
+        <v>0.06824172220854474</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.06629557563986732</v>
+        <v>0.0679152591798371</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.06613377153221123</v>
+        <v>0.06689273985925315</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.06593843278272415</v>
+        <v>0.06674842817429516</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.06454003746310488</v>
+        <v>0.06662601128067558</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.06425393880662855</v>
+        <v>0.06629557563986732</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.06327943996606922</v>
+        <v>0.06593843278272415</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.06305106523766457</v>
+        <v>0.0644319303390084</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0624543079594797</v>
+        <v>0.06442481020207569</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.06226072620985867</v>
+        <v>0.06425393880662855</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.06222678941441218</v>
+        <v>0.06420746841629943</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.06148715319813625</v>
+        <v>0.06342085340896197</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.06140108683523282</v>
+        <v>0.06340680747830119</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.06121658399896024</v>
+        <v>0.06329980160200277</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.0610541050821527</v>
+        <v>0.06244062227465075</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.06081553108968007</v>
+        <v>0.06240319500699987</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.06051963385170067</v>
+        <v>0.0614762132895661</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.06025256109447974</v>
+        <v>0.06092925953287365</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.05996203189287486</v>
+        <v>0.06082229207375756</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.05996203189287486</v>
+        <v>0.06043590871050597</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.05941577372912676</v>
+        <v>0.05977414177542917</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.05930712453256803</v>
+        <v>0.059681910436296</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.05894978039719301</v>
+        <v>0.0593093019377986</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.05894978039719301</v>
+        <v>0.05908866499697552</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.05797090872966404</v>
+        <v>0.05894978039719301</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.05773176908485178</v>
+        <v>0.05894978039719301</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.05750512225259685</v>
+        <v>0.05868494116870404</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.05750512225259685</v>
+        <v>0.05757594250872522</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.05709703788241982</v>
+        <v>0.05750512225259685</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.05681651874936788</v>
+        <v>0.05750512225259685</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05673790049616878</v>
+        <v>0.05709703788241982</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.05673790049616878</v>
+        <v>0.0567768904747552</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.05548204134563184</v>
+        <v>0.05673790049616878</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.05510701583816746</v>
+        <v>0.05673790049616878</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.05489044420850009</v>
+        <v>0.05630874376015038</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.05489044420850009</v>
+        <v>0.05579446234142083</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.05489044420850009</v>
+        <v>0.05552880256232928</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.05489044420850009</v>
+        <v>0.0552581531571088</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.05489044420850009</v>
+        <v>0.05457644396692007</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.05489044420850009</v>
+        <v>0.05421196462170097</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.05489044420850009</v>
+        <v>0.05404870008131124</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.05489044420850009</v>
+        <v>0.05395618351890175</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.05489044420850009</v>
+        <v>0.0537013597778131</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.05489044420850009</v>
+        <v>0.0532885946671251</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.05489044420850009</v>
+        <v>0.05223884248341903</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.05489044420850009</v>
+        <v>0.05223884248341903</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.05489044420850009</v>
+        <v>0.05223884248341903</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.05489044420850009</v>
+        <v>0.05205384700498206</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.05489044420850009</v>
+        <v>0.05195255705576529</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.05489044420850009</v>
+        <v>0.04953410149547821</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.05489044420850009</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.05489044420850009</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.05462287160906243</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.05424830419971083</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.05344175994527256</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.05317610016618102</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.05297653856682505</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.05185926222555315</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.05184914061641832</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.05160348112275348</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.05158207831840067</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.0506299462161286</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.05051259286620691</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.05031011374362215</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.04988614008727077</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.04988614008727077</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.04988614008727077</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.04959985465961725</v>
+        <v>0.04843858311258487</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.04953410149547821</v>
+        <v>0.04807172451019115</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.04672495413264333</v>
+        <v>0.04721174165671749</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.04672476027091177</v>
+        <v>0.04650538294010342</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.04626184279985401</v>
+        <v>0.04579117097786134</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.04579117097786134</v>
+        <v>0.04571784882395646</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.04522412089229344</v>
+        <v>0.04571784882395646</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.04497380120490857</v>
+        <v>0.04522412089229344</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.04497380120490857</v>
+        <v>0.0445436126600991</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.04415268054395538</v>
+        <v>0.04443102255967002</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.04366856307009326</v>
+        <v>0.04396437719464785</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.04319761558674595</v>
+        <v>0.04362223410864541</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.04319761558674595</v>
+        <v>0.04287818452461889</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0423613928020754</v>
+        <v>0.04257152458860869</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.04111433453141955</v>
+        <v>0.0424164094758861</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.04108616004596977</v>
+        <v>0.04132487874661162</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.04006370707973805</v>
+        <v>0.04127325079070099</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.04002131551649657</v>
+        <v>0.04111433453141955</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.03947239990789631</v>
+        <v>0.04002131551649657</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.03921471978776014</v>
+        <v>0.03962364325024614</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.03897217635046335</v>
+        <v>0.03907580545679523</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.03863548432230912</v>
+        <v>0.03904500993842075</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.03834441124108379</v>
+        <v>0.03866187512009267</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.03829334123630668</v>
+        <v>0.03804591661159917</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.03805175810123784</v>
+        <v>0.03802786833267424</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.03793044464288031</v>
+        <v>0.03765991638463917</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0375492916522806</v>
+        <v>0.03763633065084027</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.03714070108292034</v>
+        <v>0.03743774116979126</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.03630917272394441</v>
+        <v>0.03680197397943386</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.03595319765707861</v>
+        <v>0.03680197397943386</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.03594435791836204</v>
+        <v>0.03623869401873714</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.03562896998890364</v>
+        <v>0.03554411691118409</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.03556485594343939</v>
+        <v>0.0353549315049746</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.03523204694906878</v>
+        <v>0.03524106570808794</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.03523204694906878</v>
+        <v>0.03524106570808794</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.03492006686038751</v>
+        <v>0.03513224949878202</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0347954978923497</v>
+        <v>0.03481722353948302</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.03374691258445628</v>
+        <v>0.03438207899134094</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.03358403924103204</v>
+        <v>0.03335016459951423</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.03342383743046073</v>
+        <v>0.03330402567493418</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.03335016459951423</v>
+        <v>0.033287413799163</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.03269897546033507</v>
+        <v>0.03236750378583686</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.03257004282051712</v>
+        <v>0.0323043915591108</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.03236750378583686</v>
+        <v>0.0318366682693203</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0318366682693203</v>
+        <v>0.03140385789035682</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.03175462319647915</v>
+        <v>0.03051116010271282</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.03090980114639819</v>
+        <v>0.02969150666129905</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.03067151550987846</v>
+        <v>0.02969150666129905</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.03004227196742137</v>
+        <v>0.02923811995977821</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.03004227196742137</v>
+        <v>0.02855593437375359</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.02997639777169026</v>
+        <v>0.02802666130846054</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.02814215891390415</v>
+        <v>0.02780097577639595</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.02780097577639595</v>
+        <v>0.02737838879573173</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0277754077845791</v>
+        <v>0.02736305953107943</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.02663581647502666</v>
+        <v>0.02729152924337441</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.02594252960414534</v>
+        <v>0.0271971521429164</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.02594252960414534</v>
+        <v>0.02681540161757967</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.02577448218102685</v>
+        <v>0.02681540161757967</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.02577448218102685</v>
+        <v>0.02681540161757967</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.02571470153867939</v>
+        <v>0.02653064620144674</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.02571470153867939</v>
+        <v>0.02628723991562976</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.02571470153867939</v>
+        <v>0.02617670401521099</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.02539917834591376</v>
+        <v>0.02594252960414534</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.02443312256449603</v>
+        <v>0.02594252960414534</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0243541782189951</v>
+        <v>0.0251757202041536</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.02406109958523461</v>
+        <v>0.0243541782189951</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.02396541232467442</v>
+        <v>0.02421277977510261</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0236985834982244</v>
+        <v>0.02314949158751256</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0232758608012531</v>
+        <v>0.02313051495887986</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.0232758608012531</v>
+        <v>0.02284582097719445</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.0232758608012531</v>
+        <v>0.02236225199635755</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.02316435403240535</v>
+        <v>0.02219867733863468</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.02268515895149403</v>
+        <v>0.02111429381500973</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.02245473821062105</v>
+        <v>0.02030658279903097</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.02240046468882828</v>
+        <v>0.01999799737493668</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.02236801189072368</v>
+        <v>0.01999799737493668</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.02235533217740304</v>
+        <v>0.01989800505469597</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.02111429381500973</v>
+        <v>0.01978901180446546</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.02093348084220281</v>
+        <v>0.01973474149117416</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.02087086668608218</v>
+        <v>0.01952556051214693</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.02074343437375381</v>
+        <v>0.01921831563045484</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.02024718849619522</v>
+        <v>0.01921831563045484</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.01989800505469597</v>
+        <v>0.01905524677797987</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.01973474149117416</v>
+        <v>0.01905524677797987</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.01952556051214693</v>
+        <v>0.01898130089533034</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.01938465214291663</v>
+        <v>0.01799018974321975</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.01921831563045484</v>
+        <v>0.01799018974321975</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.01921831563045484</v>
+        <v>0.01762583309356769</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.01905524677797987</v>
+        <v>0.01745555443974944</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.01905524677797987</v>
+        <v>0.0173595482953568</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.01898130089533034</v>
+        <v>0.01715217916048917</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.01865549875201045</v>
+        <v>0.01702486042967633</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.01799018974321975</v>
+        <v>0.0166877542856263</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.01799018974321975</v>
+        <v>0.0161861189099286</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.01783822308654748</v>
+        <v>0.01549124021747827</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.01745555443974944</v>
+        <v>0.01516550228717439</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.0173595482953568</v>
+        <v>0.01505126358586928</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.01715217916048917</v>
+        <v>0.0147525483710027</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.01702486042967633</v>
+        <v>0.01429759456452939</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.0166877542856263</v>
+        <v>0.01401558765270483</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.0161861189099286</v>
+        <v>0.01383844183996907</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.01605198695310817</v>
+        <v>0.01343781073817518</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.01516550228717439</v>
+        <v>0.01329265034910199</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.0147525483710027</v>
+        <v>0.01318569029435168</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.01451156592109193</v>
+        <v>0.01306576674287752</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.01429759456452939</v>
+        <v>0.01265992258703386</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.01383844183996907</v>
+        <v>0.01254211152386842</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.01343781073817518</v>
+        <v>0.01243937596422229</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.01329265034910199</v>
+        <v>0.01226013580665009</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.01306576674287752</v>
+        <v>0.01099181745455891</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.01265992258703386</v>
+        <v>0.01082626465304348</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.01256687844831239</v>
+        <v>0.01015304669481698</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.01254211152386842</v>
+        <v>0.01007070251821096</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.01243937596422229</v>
+        <v>0.01007070251821096</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.01226013580665009</v>
+        <v>0.01007070251821096</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.01082626465304348</v>
+        <v>0.01002556439064972</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.009787434689372487</v>
+        <v>0.009933029908212321</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.009734524568211889</v>
+        <v>0.009808430632408882</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.009731196301207001</v>
+        <v>0.009260049471556231</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.009527108004445894</v>
+        <v>0.00883712514906243</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.009337932385689918</v>
+        <v>0.008625024368255518</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.009260049471556231</v>
+        <v>0.008559739443239289</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.009184447613369118</v>
+        <v>0.008503714833536735</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.008625024368255518</v>
+        <v>0.008503714833536735</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.008559739443239289</v>
+        <v>0.008119924466566397</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.008503714833536735</v>
+        <v>0.007953253141932182</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.008503714833536735</v>
+        <v>0.00773050658251262</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.00752583327560008</v>
+        <v>0.007675698639924011</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.006542571025090149</v>
+        <v>0.007202254827021415</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.006354451700013586</v>
+        <v>0.006377604514431479</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.006243511863559315</v>
+        <v>0.006354451700013586</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.005867763199910003</v>
+        <v>0.006243511863559315</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.005474688118578763</v>
+        <v>0.005867763199910003</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.004737307577638461</v>
+        <v>0.005474688118578763</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.004698597800687043</v>
+        <v>0.005453474795501956</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.003752794523392833</v>
+        <v>0.005300648391034279</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.003684172783778639</v>
+        <v>0.00504875140147365</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.003668460942121587</v>
+        <v>0.004757695232790127</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.002965651694706084</v>
+        <v>0.004757695232790127</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.002965651694706084</v>
+        <v>0.004754997502329994</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.002937368832885534</v>
+        <v>0.00389108026643048</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.002845091521443299</v>
+        <v>0.003836520870750482</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.002711989965558548</v>
+        <v>0.003684172783778639</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.002525552375647333</v>
+        <v>0.002965651694706084</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.002525552375647333</v>
+        <v>0.002965651694706084</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.002276974078470939</v>
+        <v>0.002574486574139945</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.001813119869674695</v>
+        <v>0.002480148569766749</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.001325899601334557</v>
+        <v>0.002081758210216389</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.001195468240788866</v>
+        <v>0.001278259847552921</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.0004528332232212051</v>
+        <v>0.0007526940811972693</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.0004432203380155819</v>
+        <v>0.0003752257914859669</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.0003508881756597582</v>
+        <v>0.0002811488068226176</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0002811488068226176</v>
+        <v>0.0002249498179469622</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.0002249498179469622</v>
+        <v>0.0002119961384308144</v>
       </c>
     </row>
     <row r="315" spans="1:2">
